--- a/EXCEL/Scanario based que on CONDITIONS.xlsx
+++ b/EXCEL/Scanario based que on CONDITIONS.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t xml:space="preserve">SCANARIOS BASED QUES </t>
   </si>
@@ -108,6 +108,21 @@
     <t>If with text and logic = if(or(dept="sales",dept="markering"),""client facing","internal"</t>
   </si>
   <si>
+    <t>AND=if(and(exp&gt;4,sals&gt;9500),"incentive","no incentive"</t>
+  </si>
+  <si>
+    <t>Nested if simple = rating&gt;=4.5,"outstanding",rating&gt;4,"very good",rating&gt;3,"satisfactory",rating&lt;3,"poor"</t>
+  </si>
+  <si>
+    <t>OR = sales&gt;9000,exp&lt;2,"warning"</t>
+  </si>
+  <si>
+    <t>AND = exp&gt;=5,dept&lt;&gt;"HR" (not sign=&lt;&gt;)</t>
+  </si>
+  <si>
+    <t>Nested if simple= sales&gt;=12000,"15%",sales&gt;=10000,"10%",sales&gt;=9000,"5%",sales&lt;9000,"0"</t>
+  </si>
+  <si>
     <t>Alice</t>
   </si>
   <si>
@@ -166,6 +181,21 @@
   </si>
   <si>
     <t>10) IF WITH TEXT AND LOGIC :-- show"client facing" if dept is sales or marketing,else"internal"</t>
+  </si>
+  <si>
+    <t>11)show "incentive" if the emp has more than 4 yr exp and sales are over $9500.otherwise show "no incentive"</t>
+  </si>
+  <si>
+    <t>12)4.5 and above -"outstanding",4.0-4.9="very good",3.0-3.99="satisfactory",blow 3.0 ="poor"</t>
+  </si>
+  <si>
+    <t>13)if sales are less than$9000 or exp is under 2 yrs ,"warning"</t>
+  </si>
+  <si>
+    <t>14)if exp is 5 or more than that and dept is not HR ,show "manager"</t>
+  </si>
+  <si>
+    <t>15) assign bonus percentage based on sales,&gt;=12000="15%",&gt;=10000="10%",&gt;=9000="5%",below 9000="0%"</t>
   </si>
 </sst>
 </file>
@@ -1410,10 +1440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:T35"/>
+  <dimension ref="A2:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1434,6 +1464,11 @@
     <col min="16" max="16" width="14.8571428571429" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="25" customWidth="1"/>
+    <col min="19" max="19" width="12.5714285714286" customWidth="1"/>
+    <col min="20" max="20" width="24.5714285714286" customWidth="1"/>
+    <col min="21" max="21" width="12.1428571428571" customWidth="1"/>
+    <col min="22" max="22" width="9" customWidth="1"/>
+    <col min="23" max="23" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="7:8">
@@ -1462,7 +1497,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" ht="126" spans="1:20">
+    <row r="8" ht="189" spans="1:23">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1517,8 +1552,21 @@
       <c r="R8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="S8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" ht="15.75" spans="1:20">
       <c r="A9" s="5"/>
@@ -1542,12 +1590,12 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" ht="15.75" spans="1:20">
+    <row r="10" ht="15.75" spans="1:23">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>12000</v>
@@ -1609,15 +1657,33 @@
         <f>IF(OR(B10="sales",B10="marketing"),"client facing","internal")</f>
         <v>client facing</v>
       </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:20">
+      <c r="S10" s="5" t="str">
+        <f>IF(AND(E10&gt;4,C10&gt;9500),"incentive","no incentive")</f>
+        <v>incentive</v>
+      </c>
+      <c r="T10" s="5" t="str" cm="1">
+        <f t="array" ref="T10">_xlfn.IFS(F10&gt;=4.5,"outstanding",F10&gt;=4,"very good",F10&gt;=3,"satisfactory",F10&lt;3,"poor")</f>
+        <v>outstanding</v>
+      </c>
+      <c r="U10" s="5" t="str">
+        <f>IF(OR(C10&lt;9000,E10&lt;2),"warning","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V10" s="5" t="str">
+        <f>IF(AND(E10&gt;=5,B10&lt;&gt;"HR"),"manager","NO")</f>
+        <v>manager</v>
+      </c>
+      <c r="W10" s="5" t="str" cm="1">
+        <f t="array" ref="W10">_xlfn.IFS(C10&gt;=12000,"15%",C10&gt;=10000,"10%",C10&gt;=9000,"5%",C10&lt;9000,"0")</f>
+        <v>15%</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:23">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
         <v>8000</v>
@@ -1679,15 +1745,33 @@
         <f>IF(OR(B11="sales",B11="marketing"),"client facing","internal")</f>
         <v>internal</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" ht="15.75" spans="1:20">
+      <c r="S11" s="5" t="str">
+        <f>IF(AND(E11&gt;4,C11&gt;=9500),"incentive","no incentive")</f>
+        <v>no incentive</v>
+      </c>
+      <c r="T11" s="5" t="str" cm="1">
+        <f t="array" ref="T11">_xlfn.IFS(F11&gt;=4.5,"outstanding",F11&gt;=4,"very good",F11&gt;=3,"satisfactory",F11&lt;3,"poor")</f>
+        <v>satisfactory</v>
+      </c>
+      <c r="U11" s="5" t="str">
+        <f>IF(OR(C10&lt;9000,E10&lt;2),"WARNING","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V11" s="5" t="str">
+        <f>IF(AND(E11&gt;=5,B11&lt;&gt;"HR"),"manager","no")</f>
+        <v>no</v>
+      </c>
+      <c r="W11" s="5" t="str" cm="1">
+        <f t="array" ref="W11">_xlfn.IFS(C11&gt;=12000,"15%",C11&gt;=10000,"10%",C11&gt;=9000,"5%",C11&lt;9000,"0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:23">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>95000</v>
@@ -1749,15 +1833,33 @@
         <f>IF(OR(B12="sales",B12="marketing"),"client facing","internal")</f>
         <v>client facing</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:20">
+      <c r="S12" s="5" t="str">
+        <f>IF(AND(E12&gt;4,C12&gt;9500),"incentive","no incentive")</f>
+        <v>no incentive</v>
+      </c>
+      <c r="T12" s="5" t="str" cm="1">
+        <f t="array" ref="T12">_xlfn.IFS(F12&gt;=4.5,"outstanding",F12&gt;=4,"very good",F12&gt;=3,"satisfactory",F12&lt;3,"poor")</f>
+        <v>satisfactory</v>
+      </c>
+      <c r="U12" s="5" t="str">
+        <f>IF(OR(C12&lt;9000,E12&lt;2),"WARNING","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V12" s="5" t="str">
+        <f>IF(AND(E12&gt;=5,B12&lt;&gt;"HR"),"manager","no")</f>
+        <v>no</v>
+      </c>
+      <c r="W12" s="5" t="str" cm="1">
+        <f t="array" ref="W12">_xlfn.IFS(C12&gt;=12000,"15%",C12&gt;=10000,"10%",C12&gt;=9000,"5%",C12&lt;9000,"0")</f>
+        <v>15%</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:23">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
         <v>10000</v>
@@ -1819,15 +1921,33 @@
         <f>IF(OR(B13="sales",B13="marketing"),"client facing","internal")</f>
         <v>client facing</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:20">
+      <c r="S13" s="5" t="str">
+        <f>IF(AND(E13&gt;4,C13&gt;9500),"incentive","no incentive")</f>
+        <v>incentive</v>
+      </c>
+      <c r="T13" s="5" t="str" cm="1">
+        <f t="array" ref="T13">_xlfn.IFS(F13&gt;=4.5,"outstanding",F13&gt;=4,"very good",F13&gt;=3,"satisfactory",F13&lt;3,"poor")</f>
+        <v>outstanding</v>
+      </c>
+      <c r="U13" s="5" t="str">
+        <f>IF(OR(C13&lt;9000,E13&lt;2),"WARNING","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V13" s="5" t="str">
+        <f>IF(AND(E13&gt;=5,B13&lt;&gt;"HR"),"manager","no")</f>
+        <v>manager</v>
+      </c>
+      <c r="W13" s="5" t="str" cm="1">
+        <f t="array" ref="W13">_xlfn.IFS(C13&gt;=12000,"15%",C13&gt;=10000,"10%",C13&gt;=9000,"5%",C13&lt;9000,"0")</f>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:23">
       <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>8800</v>
@@ -1889,15 +2009,33 @@
         <f>IF(OR(B14="sales",B14="marketing"),"client facing","internal")</f>
         <v>internal</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:20">
+      <c r="S14" s="5" t="str">
+        <f>IF(AND(E14&gt;4,C14&gt;9500),"incentive","no incentive")</f>
+        <v>no incentive</v>
+      </c>
+      <c r="T14" s="5" t="str" cm="1">
+        <f t="array" ref="T14">_xlfn.IFS(F14&gt;=4.5,"outstanding",F14&gt;=4,"very good",F14&gt;=3,"satisfactory",F14&lt;3,"poor")</f>
+        <v>poor</v>
+      </c>
+      <c r="U14" s="5" t="str">
+        <f>IF(OR(C14&lt;9000,E14&lt;2),"WARNING","NO")</f>
+        <v>WARNING</v>
+      </c>
+      <c r="V14" s="5" t="str">
+        <f>IF(AND(E14&gt;=5,B14&lt;&gt;"HR"),"manager","no")</f>
+        <v>no</v>
+      </c>
+      <c r="W14" s="5" t="str" cm="1">
+        <f t="array" ref="W14">_xlfn.IFS(C14&gt;=12000,"15%",C14&gt;=10000,"10%",C14&gt;=9000,"5%",C14&lt;9000,"0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:23">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7">
         <v>9100</v>
@@ -1959,57 +2097,100 @@
         <f>IF(OR(B15="sales",B15="marketing"),"client facing","internal")</f>
         <v>internal</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="S15" s="5" t="str">
+        <f>IF(AND(E15&gt;4,C15&gt;9500),"incentive","no incentive")</f>
+        <v>no incentive</v>
+      </c>
+      <c r="T15" s="5" t="str" cm="1">
+        <f t="array" ref="T15">_xlfn.IFS(F15&gt;=4.5,"outstanding",F15&gt;=4,"very good",F15&gt;=3,"satisfactory",F15&lt;3,"poor")</f>
+        <v>very good</v>
+      </c>
+      <c r="U15" s="5" t="str">
+        <f>IF(OR(C15&lt;9000,E15&lt;2),"WARNING","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V15" s="5" t="str">
+        <f>IF(AND(E15&gt;=5,B15&lt;&gt;"HR"),"manager","no")</f>
+        <v>no</v>
+      </c>
+      <c r="W15" s="5" t="str" cm="1">
+        <f t="array" ref="W15">_xlfn.IFS(C15&gt;=12000,"15%",C15&gt;=10000,"10%",C15&gt;=9000,"5%",C15&lt;9000,"0")</f>
+        <v>5%</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
